--- a/ANALYSIS/DATA/luscinia/bad_files_2021.xlsx
+++ b/ANALYSIS/DATA/luscinia/bad_files_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/OFFLINE/luscinia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA51C1F-F2A2-7949-A32E-DB0BAB0DEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B6970-D672-BB4F-911F-730FD1A72EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16560" xr2:uid="{71C07399-576B-8548-A660-B0208E19ED33}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
   <si>
     <t>22_131914-2</t>
   </si>
@@ -280,9 +280,6 @@
     <t>15_122454-6</t>
   </si>
   <si>
-    <t>12_084152-34</t>
-  </si>
-  <si>
     <t>05_121752-10</t>
   </si>
   <si>
@@ -443,13 +440,328 @@
   </si>
   <si>
     <t>18_131108-40</t>
+  </si>
+  <si>
+    <t>09_135758-2</t>
+  </si>
+  <si>
+    <t>09_135758-20</t>
+  </si>
+  <si>
+    <t>09_135758-22</t>
+  </si>
+  <si>
+    <t>09_135758-23</t>
+  </si>
+  <si>
+    <t>09_135758-24</t>
+  </si>
+  <si>
+    <t>09_135758-25</t>
+  </si>
+  <si>
+    <t>03_130548-2</t>
+  </si>
+  <si>
+    <t>03_130548-22</t>
+  </si>
+  <si>
+    <t>03_131508-4</t>
+  </si>
+  <si>
+    <t>06_102714-2</t>
+  </si>
+  <si>
+    <t>06_102714-22</t>
+  </si>
+  <si>
+    <t>01_075952-6</t>
+  </si>
+  <si>
+    <t>01_075952-7</t>
+  </si>
+  <si>
+    <t>01_125806-2</t>
+  </si>
+  <si>
+    <t>03_130548-12</t>
+  </si>
+  <si>
+    <t>03_131508-2</t>
+  </si>
+  <si>
+    <t>03_131508-3</t>
+  </si>
+  <si>
+    <t>31_154452-11</t>
+  </si>
+  <si>
+    <t>31_154452-22</t>
+  </si>
+  <si>
+    <t>31_154452-24</t>
+  </si>
+  <si>
+    <t>16_133506-10</t>
+  </si>
+  <si>
+    <t>06_093058-13</t>
+  </si>
+  <si>
+    <t>02_084152-32</t>
+  </si>
+  <si>
+    <t>02_090306-1</t>
+  </si>
+  <si>
+    <t>04_151018-2</t>
+  </si>
+  <si>
+    <t>04_151018-4</t>
+  </si>
+  <si>
+    <t>04_151018-5</t>
+  </si>
+  <si>
+    <t>20_113724-6</t>
+  </si>
+  <si>
+    <t>31_154452-9</t>
+  </si>
+  <si>
+    <t>31_165634-1</t>
+  </si>
+  <si>
+    <t>26_090926-1</t>
+  </si>
+  <si>
+    <t>total_useless</t>
+  </si>
+  <si>
+    <t>16_133506-5</t>
+  </si>
+  <si>
+    <t>16_133506-63</t>
+  </si>
+  <si>
+    <t>28_085612-10</t>
+  </si>
+  <si>
+    <t>28_085612-12</t>
+  </si>
+  <si>
+    <t>01_151124-22</t>
+  </si>
+  <si>
+    <t>01_151124-3</t>
+  </si>
+  <si>
+    <t>01_151124-5</t>
+  </si>
+  <si>
+    <t>01_151124-6</t>
+  </si>
+  <si>
+    <t>02_074116-1</t>
+  </si>
+  <si>
+    <t>22_154338-1</t>
+  </si>
+  <si>
+    <t>08_084126-1</t>
+  </si>
+  <si>
+    <t>27_102206-1</t>
+  </si>
+  <si>
+    <t>27_102856-1</t>
+  </si>
+  <si>
+    <t>27_103754-1</t>
+  </si>
+  <si>
+    <t>27_104536-1</t>
+  </si>
+  <si>
+    <t>27_121102-1</t>
+  </si>
+  <si>
+    <t>27_121746-1</t>
+  </si>
+  <si>
+    <t>27_121746-2</t>
+  </si>
+  <si>
+    <t>27_121746-3</t>
+  </si>
+  <si>
+    <t>27_123724-1</t>
+  </si>
+  <si>
+    <t>27_123736-1</t>
+  </si>
+  <si>
+    <t>27_124116-1</t>
+  </si>
+  <si>
+    <t>27_124116-10</t>
+  </si>
+  <si>
+    <t>27_124116-11</t>
+  </si>
+  <si>
+    <t>27_124116-12</t>
+  </si>
+  <si>
+    <t>27_124116-13</t>
+  </si>
+  <si>
+    <t>27_124116-14</t>
+  </si>
+  <si>
+    <t>27_124116-15</t>
+  </si>
+  <si>
+    <t>27_124116-16</t>
+  </si>
+  <si>
+    <t>01_125806-3</t>
+  </si>
+  <si>
+    <t>01_151124-1</t>
+  </si>
+  <si>
+    <t>17_080638-2</t>
+  </si>
+  <si>
+    <t>17_115600-19</t>
+  </si>
+  <si>
+    <t>09_122404-10</t>
+  </si>
+  <si>
+    <t>09_122404-26</t>
+  </si>
+  <si>
+    <t>09_135758-19</t>
+  </si>
+  <si>
+    <t>08_094302-5</t>
+  </si>
+  <si>
+    <t>08_094302-6</t>
+  </si>
+  <si>
+    <t>31_084052-5</t>
+  </si>
+  <si>
+    <t>06_102714-13</t>
+  </si>
+  <si>
+    <t>06_102714-38</t>
+  </si>
+  <si>
+    <t>14_074834-13</t>
+  </si>
+  <si>
+    <t>14_074834-16</t>
+  </si>
+  <si>
+    <t>14_074834-23</t>
+  </si>
+  <si>
+    <t>14_111958-1</t>
+  </si>
+  <si>
+    <t>03_145048-1</t>
+  </si>
+  <si>
+    <t>02_125038-6</t>
+  </si>
+  <si>
+    <t>18_125936-1</t>
+  </si>
+  <si>
+    <t>18_125936-11</t>
+  </si>
+  <si>
+    <t>02_161042-5</t>
+  </si>
+  <si>
+    <t>02_161042-6</t>
+  </si>
+  <si>
+    <t>02_164708-12</t>
+  </si>
+  <si>
+    <t>04_082604-4</t>
+  </si>
+  <si>
+    <t>04_151018-3</t>
+  </si>
+  <si>
+    <t>04_161926-3</t>
+  </si>
+  <si>
+    <t>09_135758-4</t>
+  </si>
+  <si>
+    <t>09_165710-7</t>
+  </si>
+  <si>
+    <t>09_165710-8</t>
+  </si>
+  <si>
+    <t>09_165710-9</t>
+  </si>
+  <si>
+    <t>10-074732-2</t>
+  </si>
+  <si>
+    <t>16_133506-4</t>
+  </si>
+  <si>
+    <t>17_082030-3</t>
+  </si>
+  <si>
+    <t>17_082030-4</t>
+  </si>
+  <si>
+    <t>17_115600-11</t>
+  </si>
+  <si>
+    <t>16_140340-32</t>
+  </si>
+  <si>
+    <t>16_140340-8</t>
+  </si>
+  <si>
+    <t>17_082030-2</t>
+  </si>
+  <si>
+    <t>02_084152-34</t>
+  </si>
+  <si>
+    <t>03_132222-15</t>
+  </si>
+  <si>
+    <t>18_111320-7</t>
+  </si>
+  <si>
+    <t>03_130548-21</t>
+  </si>
+  <si>
+    <t>09_101734-6</t>
+  </si>
+  <si>
+    <t>13_140034-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,6 +775,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,9 +809,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA1F08-1B41-3C4C-9737-1675454385C7}">
-  <dimension ref="A1:A137"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,82 +1138,85 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1230,275 +1558,927 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ANALYSIS/DATA/luscinia/bad_files_2021.xlsx
+++ b/ANALYSIS/DATA/luscinia/bad_files_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/OFFLINE/luscinia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/ownCloud/Simeon/MPI AB/PhD thesis/Chapter II/voice_paper/ANALYSIS/DATA/luscinia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B6970-D672-BB4F-911F-730FD1A72EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A7F32-9DEC-5D45-9BE5-279340A3C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16560" xr2:uid="{71C07399-576B-8548-A660-B0208E19ED33}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
   <si>
     <t>22_131914-2</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>13_140034-2</t>
+  </si>
+  <si>
+    <t>31_154452-20</t>
+  </si>
+  <si>
+    <t>16_133506-2</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1136,7 @@
   <dimension ref="A1:B247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,8 +2480,15 @@
         <v>239</v>
       </c>
     </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="2"/>
+      <c r="A247" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
